--- a/gt-atts.xlsx
+++ b/gt-atts.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samharper/git/tamani/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B522D49-2BD5-3F45-BC77-3C2C70C3C97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4525C4-63A1-954C-B851-8593D8A150C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="460" windowWidth="27700" windowHeight="17040" xr2:uid="{7425047F-906C-7443-A2C5-2452A9E6C689}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="27700" windowHeight="17040" xr2:uid="{7425047F-906C-7443-A2C5-2452A9E6C689}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -134,7 +134,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -191,12 +191,12 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8647D8-0D59-0944-9625-994E17D5B9A0}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
